--- a/Supplemental_Table_S4.xlsx
+++ b/Supplemental_Table_S4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AC602-79E5-4585-B572-D84017E12623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D15D21-ADC4-489C-A9AF-DD78C3A01E6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8355" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Supplemental_Table_S4.xlsx
+++ b/Supplemental_Table_S4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D15D21-ADC4-489C-A9AF-DD78C3A01E6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF7C250-7207-4BEC-B5D1-C2BDF3DDE774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8355" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8355" tabRatio="869" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metacore Concept Mapping" sheetId="1" r:id="rId1"/>
@@ -5722,11 +5722,14 @@
   </sheetPr>
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13555,9 +13558,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DABA29D-DA48-47B0-A731-CE3F3137A661}">
   <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
